--- a/data/news_and_keyword/kosdaq/HB테크놀러지.xlsx
+++ b/data/news_and_keyword/kosdaq/HB테크놀러지.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-11 15:38:00</t>
+          <t>2024-07-29 11:04:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'적자 정정' 볼성실공시 지적 '하락' 마감</t>
+          <t>HBM 가격 상승에 '유리기판' 부각...수혜 기대감에 급...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['정정', '볼성실공시', '지적', '마감']</t>
+          <t>['HBM', '가격', '상승에', '부각', '수혜']</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -494,17 +494,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-07-11 09:59:00</t>
+          <t>2024-07-11 15:38:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'적자 정정' 불성실공시 지적에 약세</t>
+          <t>'적자 정정' 볼성실공시 지적 '하락' 마감</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['정정', '불성실공시', '지적에', '약세']</t>
+          <t>['정정', '볼성실공시', '지적', '마감']</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -520,17 +520,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-07-11 09:12:00</t>
+          <t>2024-07-11 09:59:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>불성실공시법인 지정 예고에 10%대↓</t>
+          <t>'적자 정정' 불성실공시 지적에 약세</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['불성실공시법인', '지정', '예고에', '10']</t>
+          <t>['정정', '불성실공시', '지적에', '약세']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -546,17 +546,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-07-09 10:32:00</t>
+          <t>2024-07-11 09:12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>'유리기판' 반도체 게임체인저 주목 '상승'</t>
+          <t>불성실공시법인 지정 예고에 10%대↓</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['반도체', '게임체인저', '주목']</t>
+          <t>['불성실공시법인', '지정', '예고에', '10']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -572,17 +572,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-07-09 10:18:00</t>
+          <t>2024-07-09 10:32:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>'꿈의 기판' 시장 성장세에 52주 신고가 달성</t>
+          <t>'유리기판' 반도체 게임체인저 주목 '상승'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['기판', '시장', '성장세에', '52주', '신고가']</t>
+          <t>['반도체', '게임체인저', '주목']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -598,173 +598,173 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-05-07 09:34:00</t>
+          <t>2024-07-09 10:18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>韓 애플 아이폰16 OLED 전량 공급..삼성 OLED 전공정 ...</t>
+          <t>'꿈의 기판' 시장 성장세에 52주 신고가 달성</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['OLED', '韓', '애플', '아이폰16', '전량']</t>
+          <t>['기판', '시장', '성장세에', '52주', '신고가']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.979811574697174</v>
+        <v>-400</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.3257065948856</v>
+        <v>-400</v>
       </c>
       <c r="F7" t="n">
-        <v>-21.80349932705249</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-04-11 06:10:00</t>
+          <t>2024-05-07 09:34:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>주가 약세...거래량은 껑충</t>
+          <t>韓 애플 아이폰16 OLED 전량 공급..삼성 OLED 전공정 ...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['주가', '약세', '거래량은', '껑충']</t>
+          <t>['OLED', '韓', '애플', '아이폰16', '전량']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.439024390243902</v>
+        <v>4.979811574697174</v>
       </c>
       <c r="E8" t="n">
-        <v>5.826558265582656</v>
+        <v>-6.3257065948856</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.929539295392954</v>
+        <v>-21.80349932705249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-05 17:02:00</t>
+          <t>2024-04-11 06:10:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>반도체 유리기판 각광 소식에 강세</t>
+          <t>주가 약세...거래량은 껑충</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['반도체', '유리기판', '각광', '소식에', '강세']</t>
+          <t>['주가', '약세', '거래량은', '껑충']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07095046854083</v>
+        <v>5.826558265582656</v>
       </c>
       <c r="F9" t="n">
-        <v>4.417670682730924</v>
+        <v>-3.929539295392954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-02-19 09:10:00</t>
+          <t>2024-04-05 17:02:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>영업이익 3배 이상 뛰었다…'어닝 서프라이즈' 주목</t>
+          <t>반도체 유리기판 각광 소식에 강세</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['영업이익', '3배', '이상', '서프라이즈', '주목']</t>
+          <t>['반도체', '유리기판', '각광', '소식에', '강세']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.23728813559322</v>
+        <v>1.07095046854083</v>
       </c>
       <c r="F10" t="n">
-        <v>1.694915254237288</v>
+        <v>4.417670682730924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-02-08 14:19:00</t>
+          <t>2024-02-19 09:10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>애플 폴더블폰 출시 전망에↑...SCD 장비 독점부각</t>
+          <t>영업이익 3배 이상 뛰었다…'어닝 서프라이즈' 주목</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['애플', '폴더블폰', '출시', 'SCD', '장비']</t>
+          <t>['영업이익', '3배', '이상', '서프라이즈', '주목']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.002309468822171</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="E11" t="n">
-        <v>9.006928406466514</v>
+        <v>-4.23728813559322</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9237875288683602</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-09-07 21:00:00</t>
+          <t>2024-02-08 14:19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>주가 큰 폭 상승...3거래일 연속 상승행진</t>
+          <t>애플 폴더블폰 출시 전망에↑...SCD 장비 독점부각</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['주가', '큰', '폭', '상승', '3거래일']</t>
+          <t>['애플', '폴더블폰', '출시', 'SCD', '장비']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-12.6984126984127</v>
+        <v>3.002309468822171</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.58201058201058</v>
+        <v>9.006928406466514</v>
       </c>
       <c r="F12" t="n">
-        <v>-26.05820105820106</v>
+        <v>-0.9237875288683602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-09-07 12:02:00</t>
+          <t>2023-09-07 21:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4000원선 고지 목전…3거래일 연속 강세</t>
+          <t>주가 큰 폭 상승...3거래일 연속 상승행진</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['4000원선', '고지', '연속', '강세']</t>
+          <t>['주가', '큰', '폭', '상승', '3거래일']</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -780,173 +780,173 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-05-16 09:44:00</t>
+          <t>2023-09-07 12:02:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성디스플레이 세계 최초 8.6세대 OLED 4조 투자에 A...</t>
+          <t>4000원선 고지 목전…3거래일 연속 강세</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['삼성디스플레이', '세계', '최초', 'OLED', '4조']</t>
+          <t>['4000원선', '고지', '연속', '강세']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.399999999999999</v>
+        <v>-12.6984126984127</v>
       </c>
       <c r="E14" t="n">
-        <v>16.6</v>
+        <v>-10.58201058201058</v>
       </c>
       <c r="F14" t="n">
-        <v>7.199999999999999</v>
+        <v>-26.05820105820106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-03-28 11:20:00</t>
+          <t>2023-05-16 09:44:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성 디스플레이 5조 원 투자 소식...LCD·OLED AOI ...</t>
+          <t>삼성디스플레이 세계 최초 8.6세대 OLED 4조 투자에 A...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['삼성', '디스플레이', '5조', '원', '투자']</t>
+          <t>['삼성디스플레이', '세계', '최초', 'OLED', '4조']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.136363636363636</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3787878787878788</v>
+        <v>16.6</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.871212121212121</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-06 11:00:00</t>
+          <t>2023-03-28 11:20:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>애플 폴더블 아이폰 출시 전망… 삼성 액정 탑재 예정...</t>
+          <t>삼성 디스플레이 5조 원 투자 소식...LCD·OLED AOI ...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['애플', '폴더블', '아이폰', '출시', '삼성']</t>
+          <t>['삼성', '디스플레이', '5조', '원', '투자']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.2421307506053269</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="E16" t="n">
-        <v>1.937046004842615</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.474576271186439</v>
+        <v>-5.871212121212121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-08-11 14:48:00</t>
+          <t>2022-09-06 11:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성 QD-OLED 국내 최초 공개…검사장비 점유율 90% 독...</t>
+          <t>애플 폴더블 아이폰 출시 전망… 삼성 액정 탑재 예정...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['삼성', '국내', '최초', '점유율', '90']</t>
+          <t>['애플', '폴더블', '아이폰', '출시', '삼성']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.884615384615385</v>
+        <v>-0.2421307506053269</v>
       </c>
       <c r="E17" t="n">
-        <v>3.846153846153846</v>
+        <v>1.937046004842615</v>
       </c>
       <c r="F17" t="n">
-        <v>1.442307692307692</v>
+        <v>-8.474576271186439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-08-04 14:22:00</t>
+          <t>2022-08-11 14:48:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성 차기 폴더블폰 中 OLED 채용 검토… OLED 검사장...</t>
+          <t>삼성 QD-OLED 국내 최초 공개…검사장비 점유율 90% 독...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['OLED', '삼성', '차기', '폴더블폰', '中']</t>
+          <t>['삼성', '국내', '최초', '점유율', '90']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.262626262626263</v>
+        <v>2.884615384615385</v>
       </c>
       <c r="E18" t="n">
-        <v>5.05050505050505</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="F18" t="n">
-        <v>3.787878787878788</v>
+        <v>1.442307692307692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-07-18 15:12:00</t>
+          <t>2022-08-04 14:22:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HPSP 지분 보유 소식에 주가 '주목'</t>
+          <t>삼성 차기 폴더블폰 中 OLED 채용 검토… OLED 검사장...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['HPSP', '지분', '보유', '소식에', '주가']</t>
+          <t>['OLED', '삼성', '차기', '폴더블폰', '中']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2.992518703241895</v>
+        <v>1.262626262626263</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.496259351620948</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="F19" t="n">
-        <v>6.483790523690773</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-07-18 14:47:00</t>
+          <t>2022-07-18 15:12:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HPSP 공정미세화 문제 해결 유일 장비 속 평가익 2배 ...</t>
+          <t>HPSP 지분 보유 소식에 주가 '주목'</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['HPSP', '공정미세화', '문제', '해결', '유일']</t>
+          <t>['HPSP', '지분', '보유', '소식에', '주가']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -962,121 +962,121 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-09-10 09:09:00</t>
+          <t>2022-07-18 14:47:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>지니뮤직의 밀리의 서재 인수에 강세</t>
+          <t>HPSP 공정미세화 문제 해결 유일 장비 속 평가익 2배 ...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['지니뮤직의', '밀리의', '서재', '인수에', '강세']</t>
+          <t>['HPSP', '공정미세화', '문제', '해결', '유일']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-3.327495621716287</v>
+        <v>-2.992518703241895</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.005253940455342</v>
+        <v>-1.496259351620948</v>
       </c>
       <c r="F21" t="n">
-        <v>-10.15761821366024</v>
+        <v>6.483790523690773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018-08-14 09:14:00</t>
+          <t>2021-09-10 09:09:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>엘이티 인수 소식에 상승세</t>
+          <t>지니뮤직의 밀리의 서재 인수에 강세</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['엘이티', '인수', '소식에', '상승세']</t>
+          <t>['지니뮤직의', '밀리의', '서재', '인수에', '강세']</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-5.346534653465347</v>
+        <v>-3.327495621716287</v>
       </c>
       <c r="E22" t="n">
-        <v>9.108910891089108</v>
+        <v>-7.005253940455342</v>
       </c>
       <c r="F22" t="n">
-        <v>36.43564356435643</v>
+        <v>-10.15761821366024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018-08-03 14:31:00</t>
+          <t>2018-08-14 09:14:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>시간 지날수록 낙폭 커지면서 7%대 급락…4거래일만에</t>
+          <t>엘이티 인수 소식에 상승세</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['시간', '지날수록', '낙폭', '커지면서', '7']</t>
+          <t>['엘이티', '인수', '소식에', '상승세']</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-4.728546409807356</v>
+        <v>-5.346534653465347</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.705779334500876</v>
+        <v>9.108910891089108</v>
       </c>
       <c r="F23" t="n">
-        <v>11.20840630472855</v>
+        <v>36.43564356435643</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2018-07-10 09:34:00</t>
+          <t>2018-08-03 14:31:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LET 지분 인수 소식에 강세</t>
+          <t>시간 지날수록 낙폭 커지면서 7%대 급락…4거래일만에</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['LET', '지분', '인수', '소식에', '강세']</t>
+          <t>['시간', '지날수록', '낙폭', '커지면서', '7']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-3.389830508474576</v>
+        <v>-4.728546409807356</v>
       </c>
       <c r="E24" t="n">
-        <v>10.38135593220339</v>
+        <v>-7.705779334500876</v>
       </c>
       <c r="F24" t="n">
-        <v>11.22881355932203</v>
+        <v>11.20840630472855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2018-07-10 09:08:00</t>
+          <t>2018-07-10 09:34:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>엘이티 인수 소식에 상승세</t>
+          <t>LET 지분 인수 소식에 강세</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['엘이티', '인수', '소식에', '상승세']</t>
+          <t>['LET', '지분', '인수', '소식에', '강세']</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1092,69 +1092,69 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018-03-29 09:26:00</t>
+          <t>2018-07-10 09:08:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>대규모 공급계약 소식에 강세</t>
+          <t>엘이티 인수 소식에 상승세</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['대규모', '공급계약', '소식에', '강세']</t>
+          <t>['엘이티', '인수', '소식에', '상승세']</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.1572327044025157</v>
+        <v>-3.389830508474576</v>
       </c>
       <c r="E26" t="n">
-        <v>-4.088050314465408</v>
+        <v>10.38135593220339</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.018867924528301</v>
+        <v>11.22881355932203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2017-07-21 09:21:00</t>
+          <t>2018-03-29 09:26:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경영진 지분매각 소식에 '약세'</t>
+          <t>대규모 공급계약 소식에 강세</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['경영진', '지분매각', '소식에']</t>
+          <t>['대규모', '공급계약', '소식에', '강세']</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.766478342749529</v>
+        <v>-0.1572327044025157</v>
       </c>
       <c r="E27" t="n">
-        <v>-10.92278719397363</v>
+        <v>-4.088050314465408</v>
       </c>
       <c r="F27" t="n">
-        <v>-13.93596986817326</v>
+        <v>-8.018867924528301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2017-07-21 09:15:00</t>
+          <t>2017-07-21 09:21:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경영진 지분매각 소식에 `약세`</t>
+          <t>경영진 지분매각 소식에 '약세'</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['경영진', '지분매각', '소식에', '약세']</t>
+          <t>['경영진', '지분매각', '소식에']</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1170,43 +1170,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2016-05-12 09:36:00</t>
+          <t>2017-07-21 09:15:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>·AP시스템, 백지공시에 상승세</t>
+          <t>경영진 지분매각 소식에 `약세`</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['백지공시에', '상승세']</t>
+          <t>['경영진', '지분매각', '소식에', '약세']</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2.071005917159764</v>
+        <v>3.766478342749529</v>
       </c>
       <c r="E29" t="n">
-        <v>-10.35502958579882</v>
+        <v>-10.92278719397363</v>
       </c>
       <c r="F29" t="n">
-        <v>2.810650887573964</v>
+        <v>-13.93596986817326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2016-05-12 09:20:00</t>
+          <t>2016-05-12 09:36:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>·AP시스템, 백지 수주 공시에 '급등'</t>
+          <t>·AP시스템, 백지공시에 상승세</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['백지', '수주', '공시에']</t>
+          <t>['백지공시에', '상승세']</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1222,17 +1222,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2016-05-12 09:12:00</t>
+          <t>2016-05-12 09:20:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>백지공시에 오름세</t>
+          <t>·AP시스템, 백지 수주 공시에 '급등'</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['백지공시에', '오름세']</t>
+          <t>['백지', '수주', '공시에']</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1248,17 +1248,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2016-05-12 09:08:00</t>
+          <t>2016-05-12 09:12:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>장비공급 계약 '신고가'</t>
+          <t>백지공시에 오름세</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['장비공급', '계약']</t>
+          <t>['백지공시에', '오름세']</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1274,95 +1274,95 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2016-04-08 09:48:00</t>
+          <t>2016-05-12 09:08:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성 OLED 최소 10조원 투자 수혜 ↑</t>
+          <t>장비공급 계약 '신고가'</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['삼성', 'OLED', '최소', '10조원', '투자']</t>
+          <t>['장비공급', '계약']</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.7067137809187279</v>
+        <v>-2.071005917159764</v>
       </c>
       <c r="E33" t="n">
-        <v>15.7243816254417</v>
+        <v>-10.35502958579882</v>
       </c>
       <c r="F33" t="n">
-        <v>15.54770318021201</v>
+        <v>2.810650887573964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2016-03-25 09:39:00</t>
+          <t>2016-04-08 09:48:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>관계사 HB엔터 中 화이 대규모 투자에 강세</t>
+          <t>삼성 OLED 최소 10조원 투자 수혜 ↑</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['관계사', 'HB엔터', '中', '화이', '대규모']</t>
+          <t>['삼성', 'OLED', '최소', '10조원', '투자']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1.260504201680672</v>
+        <v>-0.7067137809187279</v>
       </c>
       <c r="E34" t="n">
-        <v>2.941176470588235</v>
+        <v>15.7243816254417</v>
       </c>
       <c r="F34" t="n">
-        <v>34.03361344537815</v>
+        <v>15.54770318021201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2016-01-13 10:02:00</t>
+          <t>2016-03-25 09:39:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>394억원 규모 수주 소식에 강세</t>
+          <t>관계사 HB엔터 中 화이 대규모 투자에 강세</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['394억원', '규모', '수주', '소식에', '강세']</t>
+          <t>['관계사', 'HB엔터', '中', '화이', '대규모']</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18.60986547085202</v>
+        <v>-1.260504201680672</v>
       </c>
       <c r="E35" t="n">
-        <v>15.02242152466368</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="F35" t="n">
-        <v>8.744394618834081</v>
+        <v>34.03361344537815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2016-01-13 09:18:00</t>
+          <t>2016-01-13 10:02:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>394억원어치 공급 계약 체결 소식에 오름세</t>
+          <t>394억원 규모 수주 소식에 강세</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['394억원어치', '공급', '계약', '체결', '소식에']</t>
+          <t>['394억원', '규모', '수주', '소식에', '강세']</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1378,26 +1378,52 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2016-01-13 09:18:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>394억원어치 공급 계약 체결 소식에 오름세</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['394억원어치', '공급', '계약', '체결', '소식에']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>18.60986547085202</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15.02242152466368</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.744394618834081</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2015-12-09 09:19:00</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>주권매매거래 재개 첫날 약세</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>['주권매매거래', '재개', '첫날', '약세']</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>8.157099697885197</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E38" t="n">
         <v>15.70996978851964</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F38" t="n">
         <v>19.03323262839879</v>
       </c>
     </row>
